--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>305.6670726048914</v>
+        <v>305.575254624196</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>359.26579863663324</v>
+        <v>358.30947450358804</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>345.23275758850514</v>
+        <v>344.60006172895976</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>358.5387075154569</v>
+        <v>358.26231083788525</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>364.0646597191129</v>
+        <v>364.18277164321415</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>368.1049586365316</v>
+        <v>368.10950706386103</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>352.3000026555394</v>
+        <v>352.17045578053455</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>345.46554576091137</v>
+        <v>345.85505383208664</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>342.2378436828607</v>
+        <v>342.7820248755434</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>339.7651849866367</v>
+        <v>340.0756540655682</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>353.6208003480449</v>
+        <v>353.8839466342849</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>378.53095590365183</v>
+        <v>378.8958729724462</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>389.7931351241031</v>
+        <v>389.6669224893219</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>355.74481633765356</v>
+        <v>355.0057422766282</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>358.39351179524346</v>
+        <v>357.83473995486025</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>361.4022952602909</v>
+        <v>361.28004203565774</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.3912395163051</v>
+        <v>346.65098133788905</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>379.7581757409229</v>
+        <v>379.90004931612884</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>470.33573763518365</v>
+        <v>470.20351266856784</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>477.057160194409</v>
+        <v>477.53924400062004</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>469.8871227781843</v>
+        <v>470.470332127224</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>533.1347087856168</v>
+        <v>533.380105473102</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>527.9729287698442</v>
+        <v>528.1679959457119</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>501.3630566809768</v>
+        <v>501.8167498495673</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>510.2248933623519</v>
+        <v>510.13325129260534</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>587.3285331868059</v>
+        <v>586.2892228848523</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>571.9076295291974</v>
+        <v>570.8224897198212</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>616.8169294948926</v>
+        <v>616.5796793372217</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>598.3655008071846</v>
+        <v>598.5391768248277</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>559.3582377637871</v>
+        <v>559.4648039309257</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>526.6696084669677</v>
+        <v>526.7661716697525</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>497.67622924641677</v>
+        <v>498.28522061599114</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.39115792908444</v>
+        <v>511.9114807626408</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>504.75378311080914</v>
+        <v>505.00806903881164</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>525.406993884561</v>
+        <v>525.6059037970858</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>507.1000869706506</v>
+        <v>507.471222907653</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>525.3764269840714</v>
+        <v>525.2985027903264</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>566.562955067473</v>
+        <v>565.939902978294</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>574.531087010564</v>
+        <v>573.3883986666923</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>580.2257388036218</v>
+        <v>580.381901881816</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>584.9040217616264</v>
+        <v>585.0795448434988</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>622.0614446182844</v>
+        <v>622.1289314568501</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>613.3603844454221</v>
+        <v>613.6666622822385</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>582.8568689742789</v>
+        <v>583.4044116794936</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>600.7520841643143</v>
+        <v>600.970676995516</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>618.5920008922567</v>
+        <v>618.719852181419</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>632.7287262552494</v>
+        <v>632.8214848818064</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>683.8665302838077</v>
+        <v>683.9774400484898</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>702.0778955956816</v>
+        <v>701.7916985033359</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>632.1089271359531</v>
+        <v>631.8842878779155</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>626.0868666189767</v>
+        <v>624.7633178246306</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>626.2972268398381</v>
+        <v>627.0029607889204</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>664.7564544756473</v>
+        <v>665.1022407268264</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>685.6464245595221</v>
+        <v>685.9539836830246</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>677.2829036259321</v>
+        <v>677.970351520095</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>730.3767530235857</v>
+        <v>730.7181106327752</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>835.8885754807648</v>
+        <v>835.6544106804193</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>821.91166126788</v>
+        <v>821.8199068172871</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>799.876136650932</v>
+        <v>799.8889667976273</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>779.9428423184798</v>
+        <v>779.9156457009487</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>829.6418746691578</v>
+        <v>829.4506573738336</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>919.9908105292084</v>
+        <v>920.180612076688</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1134.9708242882807</v>
+        <v>1132.0091730432084</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1142.1101151906728</v>
+        <v>1144.0360486196867</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1361.91148831232</v>
+        <v>1362.9742539240851</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1336.5821794845112</v>
+        <v>1337.6951185718929</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1208.7244192296441</v>
+        <v>1210.170708728038</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1283.3266792043596</v>
+        <v>1283.2079461053197</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1253.989982769535</v>
+        <v>1253.2830743271256</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1300.3126183118598</v>
+        <v>1299.8784786786014</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1414.4552191296734</v>
+        <v>1413.765226157052</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1539.7082333288386</v>
+        <v>1538.3037413889408</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1475.2963641455258</v>
+        <v>1474.1795060793877</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1456.474027920394</v>
+        <v>1456.99044220413</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1606.1977523373707</v>
+        <v>1601.7860850561874</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1563.313594077817</v>
+        <v>1567.6631525446658</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1597.1078648267269</v>
+        <v>1600.6771444467727</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1673.6106477872906</v>
+        <v>1677.0595266534413</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1904.4050491625849</v>
+        <v>1907.122901111302</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2247.7787583075046</v>
+        <v>2246.4894818200273</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2568.76565034241</v>
+        <v>2566.3860666180253</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2620.81684036863</v>
+        <v>2618.82512441685</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2502.0852029149805</v>
+        <v>2499.6236230782433</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2403.3844553326567</v>
+        <v>2399.2192712562774</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2658.5013630287285</v>
+        <v>2654.3429809046424</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2675.7854674615432</v>
+        <v>2675.6072171669907</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2859.4702574494863</v>
+        <v>2850.405494448989</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2864.3788040120394</v>
+        <v>2874.440497509239</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2856.338934041525</v>
+        <v>2865.5763436850225</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3045.542291669958</v>
+        <v>3054.058020086554</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3396.165685682805</v>
+        <v>3401.4265398397874</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3512.6891893933184</v>
+        <v>3511.0380089888795</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3322.796225421723</v>
+        <v>3321.508862880809</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3488.5808940179363</v>
+        <v>3487.2061766440665</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3935.833009539809</v>
+        <v>3930.893978414757</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4558.939993137041</v>
+        <v>4546.645498720084</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4463.948460650135</v>
+        <v>4453.19617554003</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4340.18145189961</v>
+        <v>4337.3079950641</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4052.643460901481</v>
+        <v>4085.1712588058</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4656.71278178868</v>
+        <v>4566.280833803898</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>305.575254624196</v>
+        <v>305.4307941592817</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>358.30947450358804</v>
+        <v>358.9939354618631</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>344.60006172895976</v>
+        <v>344.6210391425215</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>358.26231083788525</v>
+        <v>358.4317977802766</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>364.18277164321415</v>
+        <v>364.5358310053132</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>368.10950706386103</v>
+        <v>368.57363447732575</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>352.17045578053455</v>
+        <v>352.6646395292892</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>345.85505383208664</v>
+        <v>345.6589252805748</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>342.7820248755434</v>
+        <v>342.3109761890394</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>340.0756540655682</v>
+        <v>339.76771717107516</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>353.8839466342849</v>
+        <v>353.52699533999265</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>378.8958729724462</v>
+        <v>378.30750058917914</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>389.6669224893219</v>
+        <v>389.4784203423251</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>355.0057422766282</v>
+        <v>355.4318489376225</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>357.83473995486025</v>
+        <v>357.70311719727596</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>361.28004203565774</v>
+        <v>361.27507520556645</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.65098133788905</v>
+        <v>346.8668426547003</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>379.90004931612884</v>
+        <v>380.2707023073679</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>470.20351266856784</v>
+        <v>470.85908865114556</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>477.53924400062004</v>
+        <v>477.3598996972551</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>470.470332127224</v>
+        <v>470.02185821742887</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>533.380105473102</v>
+        <v>533.1648099854368</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>528.1679959457119</v>
+        <v>527.8349688961827</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>501.8167498495673</v>
+        <v>501.0332332997171</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>510.13325129260534</v>
+        <v>509.75491112361783</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.2892228848523</v>
+        <v>586.7060164440378</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>570.8224897198212</v>
+        <v>570.6674885023383</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>616.5796793372217</v>
+        <v>616.5842861819123</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>598.5391768248277</v>
+        <v>599.3618099047118</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>559.4648039309257</v>
+        <v>560.2505056268549</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>526.7661716697525</v>
+        <v>527.3180890589385</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>498.28522061599114</v>
+        <v>498.03968346010225</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.9114807626408</v>
+        <v>511.58433456073794</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>505.00806903881164</v>
+        <v>504.78299825813446</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>525.6059037970858</v>
+        <v>525.2407124137297</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>507.471222907653</v>
+        <v>506.71731890409677</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>525.2985027903264</v>
+        <v>524.8017126408911</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>565.939902978294</v>
+        <v>565.7815372029111</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>573.3883986666923</v>
+        <v>573.0245989538951</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>580.381901881816</v>
+        <v>579.9257184334697</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>585.0795448434988</v>
+        <v>586.0936585716302</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>622.1289314568501</v>
+        <v>623.2756565883641</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>613.6666622822385</v>
+        <v>614.2557747870558</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>583.4044116794936</v>
+        <v>583.4123778871049</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>600.970676995516</v>
+        <v>601.0889555459091</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>618.719852181419</v>
+        <v>618.6597656276542</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>632.8214848818064</v>
+        <v>632.4996324092019</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>683.9774400484898</v>
+        <v>683.2827403888111</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>701.7916985033359</v>
+        <v>701.1534392512062</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>631.8842878779155</v>
+        <v>630.9578534153248</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>624.7633178246306</v>
+        <v>624.0288470545648</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>627.0029607889204</v>
+        <v>625.847613275606</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>665.1022407268264</v>
+        <v>666.4403298142461</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>685.9539836830246</v>
+        <v>687.2976511646326</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>677.970351520095</v>
+        <v>678.4903254585272</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>730.7181106327752</v>
+        <v>731.3116162714028</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>835.6544106804193</v>
+        <v>836.5469589972427</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>821.8199068172871</v>
+        <v>822.0544147890457</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>799.8889667976273</v>
+        <v>799.5194290545339</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>779.9156457009487</v>
+        <v>779.1191226222016</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>829.4506573738336</v>
+        <v>828.2395126033197</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>920.180612076688</v>
+        <v>917.799119562979</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1132.0091730432084</v>
+        <v>1130.2284775830485</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1144.0360486196867</v>
+        <v>1141.0533187150572</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1362.9742539240851</v>
+        <v>1366.3027658111469</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1337.6951185718929</v>
+        <v>1340.6529305757147</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1210.170708728038</v>
+        <v>1211.4923917345302</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1283.2079461053197</v>
+        <v>1285.5334428722067</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1253.2830743271256</v>
+        <v>1255.2837874267977</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1299.8784786786014</v>
+        <v>1300.626748129218</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1413.765226157052</v>
+        <v>1413.7215037827993</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1538.3037413889408</v>
+        <v>1537.7680339527785</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1474.1795060793877</v>
+        <v>1472.1802848954262</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1456.99044220413</v>
+        <v>1452.003699107628</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1601.7860850561874</v>
+        <v>1597.4436755368574</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1567.6631525446658</v>
+        <v>1561.3610382683212</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1600.6771444467727</v>
+        <v>1603.541468024403</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1677.0595266534413</v>
+        <v>1680.0103880672013</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1907.122901111302</v>
+        <v>1910.0741000438084</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2246.4894818200273</v>
+        <v>2252.9017744133976</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2566.3860666180253</v>
+        <v>2572.2458868724075</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2618.82512441685</v>
+        <v>2621.721864775176</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2499.6236230782433</v>
+        <v>2500.4988718205946</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2399.2192712562774</v>
+        <v>2399.6115625100874</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2654.3429809046424</v>
+        <v>2651.414292734535</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2675.6072171669907</v>
+        <v>2665.3065463345397</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2850.405494448989</v>
+        <v>2839.103926306791</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2874.440497509239</v>
+        <v>2859.813605761869</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2865.5763436850225</v>
+        <v>2871.2313453617307</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3054.058020086554</v>
+        <v>3060.6807526337348</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3401.4265398397874</v>
+        <v>3409.465574624546</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3511.0380089888795</v>
+        <v>3523.002079461045</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3321.508862880809</v>
+        <v>3328.3354561140222</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3487.2061766440665</v>
+        <v>3489.898217125789</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3930.893978414757</v>
+        <v>3932.545190525482</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4546.645498720084</v>
+        <v>4549.806814059523</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4453.19617554003</v>
+        <v>4448.6610093725</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4337.3079950641</v>
+        <v>4318.116286368859</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4085.1712588058</v>
+        <v>4062.9850663034586</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,15 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4566.280833803898</v>
+        <v>4538.230967859298</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45748.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4605.292888112243</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>305.4307941592817</v>
+        <v>304.9402333030252</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>358.9939354618631</v>
+        <v>360.6809627975092</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>344.6210391425215</v>
+        <v>345.24796804093415</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>358.4317977802766</v>
+        <v>359.76242164861486</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>364.5358310053132</v>
+        <v>364.6376248304983</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>368.57363447732575</v>
+        <v>368.95947224350346</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>352.6646395292892</v>
+        <v>353.3813238664159</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>345.6589252805748</v>
+        <v>344.4986602993779</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>342.3109761890394</v>
+        <v>340.5852809389625</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>339.76771717107516</v>
+        <v>338.75241363533166</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>353.52699533999265</v>
+        <v>352.55812018669667</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>378.30750058917914</v>
+        <v>379.1589806016872</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>389.4784203423251</v>
+        <v>388.89707486284027</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>355.4318489376225</v>
+        <v>356.4390987880502</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>357.70311719727596</v>
+        <v>358.0213345620037</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>361.27507520556645</v>
+        <v>362.2112954671065</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.8668426547003</v>
+        <v>346.6081631656848</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>380.2707023073679</v>
+        <v>380.31673230099545</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>470.85908865114556</v>
+        <v>471.694691349821</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>477.3598996972551</v>
+        <v>475.9568012051502</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>470.02185821742887</v>
+        <v>468.1718789521156</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>533.1648099854368</v>
+        <v>532.2500428364838</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>527.8349688961827</v>
+        <v>526.9040455189288</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>501.0332332997171</v>
+        <v>502.35666609342735</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>509.75491112361783</v>
+        <v>508.7726634828956</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>586.7060164440378</v>
+        <v>587.5112111851389</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>570.6674885023383</v>
+        <v>571.4881104878076</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>616.5842861819123</v>
+        <v>618.3920083766723</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>599.3618099047118</v>
+        <v>599.86100998956</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>560.2505056268549</v>
+        <v>560.6989155269468</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>527.3180890589385</v>
+        <v>527.5701945642758</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>498.03968346010225</v>
+        <v>496.35939668195465</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>511.58433456073794</v>
+        <v>509.9834871752457</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>504.78299825813446</v>
+        <v>503.8614218855367</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>525.2407124137297</v>
+        <v>524.2626019597241</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>506.71731890409677</v>
+        <v>508.58476285999956</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>524.8017126408911</v>
+        <v>523.6539966385964</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>565.7815372029111</v>
+        <v>564.9560832760615</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>573.0245989538951</v>
+        <v>573.5515937722857</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>579.9257184334697</v>
+        <v>580.6843254114888</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>586.0936585716302</v>
+        <v>586.783236831571</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>623.2756565883641</v>
+        <v>624.04604662455</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>614.2557747870558</v>
+        <v>614.010307018219</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>583.4123778871049</v>
+        <v>582.0855545624989</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>601.0889555459091</v>
+        <v>600.4973433850865</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>618.6597656276542</v>
+        <v>618.0820620571161</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>632.4996324092019</v>
+        <v>631.7036522946026</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>683.2827403888111</v>
+        <v>687.5643628649244</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>701.1534392512062</v>
+        <v>699.9237630344871</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>630.9578534153248</v>
+        <v>627.9297116164574</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>624.0288470545648</v>
+        <v>624.1151237959465</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>625.847613275606</v>
+        <v>625.3626025748588</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>666.4403298142461</v>
+        <v>667.0816477609624</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>687.2976511646326</v>
+        <v>687.641207050705</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>678.4903254585272</v>
+        <v>677.2991868961399</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>731.3116162714028</v>
+        <v>730.9091264330959</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>836.5469589972427</v>
+        <v>837.4968246866486</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>822.0544147890457</v>
+        <v>822.0559344806171</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>799.5194290545339</v>
+        <v>798.7305289394739</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>779.1191226222016</v>
+        <v>785.5000548396278</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>828.2395126033197</v>
+        <v>826.0165110994043</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>917.799119562979</v>
+        <v>910.5349898227265</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1130.2284775830485</v>
+        <v>1130.176612880052</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1141.0533187150572</v>
+        <v>1139.065155967272</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1366.3027658111469</v>
+        <v>1367.3060642690334</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1340.6529305757147</v>
+        <v>1340.2439739258477</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1211.4923917345302</v>
+        <v>1209.0057529647158</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1285.5334428722067</v>
+        <v>1287.4415094745075</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1255.2837874267977</v>
+        <v>1258.0765331047057</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1300.626748129218</v>
+        <v>1301.4906426404254</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1413.7215037827993</v>
+        <v>1414.1709347021438</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1537.7680339527785</v>
+        <v>1556.9858327578913</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1472.1802848954262</v>
+        <v>1469.5524995192109</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1452.003699107628</v>
+        <v>1437.319606500557</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1597.4436755368574</v>
+        <v>1594.5740308037505</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1561.3610382683212</v>
+        <v>1555.2419663548776</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1603.541468024403</v>
+        <v>1599.124593056895</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1680.0103880672013</v>
+        <v>1674.2964718607448</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1910.0741000438084</v>
+        <v>1905.5429963244846</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2252.9017744133976</v>
+        <v>2260.3325100755646</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2572.2458868724075</v>
+        <v>2581.1006076714384</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2621.721864775176</v>
+        <v>2626.443874769635</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2500.4988718205946</v>
+        <v>2504.337698521749</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2399.6115625100874</v>
+        <v>2440.82357289101</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2651.414292734535</v>
+        <v>2650.6409206584285</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2665.3065463345397</v>
+        <v>2635.8380771867132</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2839.103926306791</v>
+        <v>2829.6032589751894</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2859.813605761869</v>
+        <v>2846.8772398645697</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2871.2313453617307</v>
+        <v>2857.904862130557</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3060.6807526337348</v>
+        <v>3045.790219299783</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3409.465574624546</v>
+        <v>3401.820444388036</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3523.002079461045</v>
+        <v>3534.913205329028</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3328.3354561140222</v>
+        <v>3335.006525434564</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3489.898217125789</v>
+        <v>3491.918192412295</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3932.545190525482</v>
+        <v>3940.7566554225996</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4549.806814059523</v>
+        <v>4295.5676706986615</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4448.6610093725</v>
+        <v>4488.82996491219</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4318.116286368859</v>
+        <v>4413.96888030658</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4062.9850663034586</v>
+        <v>4043.888784135194</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4538.230967859298</v>
+        <v>4518.066121809575</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4605.292888112243</v>
+        <v>4600.330365367743</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>304.9402333030252</v>
+        <v>304.96197625238636</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>360.6809627975092</v>
+        <v>360.62494367698815</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>345.24796804093415</v>
+        <v>345.25324868978754</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>359.76242164861486</v>
+        <v>359.75427444253285</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>364.6376248304983</v>
+        <v>364.5937978475621</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>368.95947224350346</v>
+        <v>368.90620148510396</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>353.3813238664159</v>
+        <v>353.3278536410262</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>344.4986602993779</v>
+        <v>344.5160312592554</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>340.5852809389625</v>
+        <v>340.6284489074546</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>338.75241363533166</v>
+        <v>338.78048136747265</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>352.55812018669667</v>
+        <v>352.5929907408412</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>379.1589806016872</v>
+        <v>379.2069545402497</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>388.89707486284027</v>
+        <v>388.9245875042746</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>356.4390987880502</v>
+        <v>356.4050713747777</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>358.0213345620037</v>
+        <v>358.0389006252569</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>362.2112954671065</v>
+        <v>362.2177902681003</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.6081631656848</v>
+        <v>346.5751697436941</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>380.31673230099545</v>
+        <v>380.27012260165145</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>471.694691349821</v>
+        <v>471.62474221559967</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>475.9568012051502</v>
+        <v>475.9720434765382</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>468.1718789521156</v>
+        <v>468.2132338346853</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>532.2500428364838</v>
+        <v>532.2721195958993</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>526.9040455189288</v>
+        <v>526.9397696268608</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>502.35666609342735</v>
+        <v>502.42004371609045</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>508.7726634828956</v>
+        <v>508.81750234749404</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>587.5112111851389</v>
+        <v>587.483931954804</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>571.4881104878076</v>
+        <v>571.5132645390316</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>618.3920083766723</v>
+        <v>618.4059597494202</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>599.86100998956</v>
+        <v>599.7686184256498</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>560.6989155269468</v>
+        <v>560.6124375474291</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>527.5701945642758</v>
+        <v>527.5081730019089</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>496.35939668195465</v>
+        <v>496.37649508709643</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>509.9834871752457</v>
+        <v>510.0113263280035</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>503.8614218855367</v>
+        <v>503.88150590464693</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>524.2626019597241</v>
+        <v>524.2985691886723</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>508.58476285999956</v>
+        <v>508.6451600782208</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>523.6539966385964</v>
+        <v>523.7066659381189</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>564.9560832760615</v>
+        <v>564.9809892324639</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>573.5515937722857</v>
+        <v>573.5952148615535</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>580.6843254114888</v>
+        <v>580.7383144908495</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>586.783236831571</v>
+        <v>586.6765591658425</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>624.04604662455</v>
+        <v>623.9307833727806</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>614.010307018219</v>
+        <v>613.9461491704524</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>582.0855545624989</v>
+        <v>582.0773798746543</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>600.4973433850865</v>
+        <v>600.4839322321387</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>618.0820620571161</v>
+        <v>618.0863066425349</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>631.7036522946026</v>
+        <v>631.7342063352631</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>687.5643628649244</v>
+        <v>687.6199608768644</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>699.9237630344871</v>
+        <v>699.9888143626988</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>627.9297116164574</v>
+        <v>628.0234652026827</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>624.1151237959465</v>
+        <v>624.1914615927624</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>625.3626025748588</v>
+        <v>625.4781793752401</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>667.0816477609624</v>
+        <v>666.9481648925768</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>687.641207050705</v>
+        <v>687.5124921311833</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>677.2991868961399</v>
+        <v>677.2429720900271</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>730.9091264330959</v>
+        <v>730.8458854095363</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>837.4968246866486</v>
+        <v>837.4115805909405</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>822.0559344806171</v>
+        <v>822.0320244930643</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>798.7305289394739</v>
+        <v>798.7606803275204</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>785.5000548396278</v>
+        <v>785.5638385648207</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>826.0165110994043</v>
+        <v>826.1217482621229</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>910.5349898227265</v>
+        <v>910.7583439662868</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1130.176612880052</v>
+        <v>1130.3545135301108</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1139.065155967272</v>
+        <v>1139.3520908036867</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1367.3060642690334</v>
+        <v>1366.9968271473806</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1340.2439739258477</v>
+        <v>1339.9809728340185</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1209.0057529647158</v>
+        <v>1208.8837043550345</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1287.4415094745075</v>
+        <v>1287.2181184723313</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1258.0765331047057</v>
+        <v>1257.8842352595273</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1301.4906426404254</v>
+        <v>1301.415442925896</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1414.1709347021438</v>
+        <v>1414.1661076814862</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1556.9858327578913</v>
+        <v>1557.039027687539</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1469.5524995192109</v>
+        <v>1469.7114703724549</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1437.319606500557</v>
+        <v>1437.7649358676981</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1594.5740308037505</v>
+        <v>1594.968281938969</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1555.2419663548776</v>
+        <v>1555.808463925601</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1599.124593056895</v>
+        <v>1598.8599292682181</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1674.2964718607448</v>
+        <v>1674.0488456356657</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1905.5429963244846</v>
+        <v>1905.2993153057644</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2260.3325100755646</v>
+        <v>2259.745901738879</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2581.1006076714384</v>
+        <v>2580.5558952069428</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2626.443874769635</v>
+        <v>2626.174952656881</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2504.337698521749</v>
+        <v>2504.235301625284</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2440.82357289101</v>
+        <v>2440.841411378575</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2650.6409206584285</v>
+        <v>2650.8357247626464</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2635.8380771867132</v>
+        <v>2636.7096501600818</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2829.6032589751894</v>
+        <v>2830.5664379494883</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2846.8772398645697</v>
+        <v>2848.131898260494</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2857.904862130557</v>
+        <v>2857.4282614539056</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3045.790219299783</v>
+        <v>3045.2936282572773</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3401.820444388036</v>
+        <v>3401.208135555296</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3534.913205329028</v>
+        <v>3533.8505524746693</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3335.006525434564</v>
+        <v>3334.3609618444148</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3491.918192412295</v>
+        <v>3491.6423119780093</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3940.7566554225996</v>
+        <v>3940.558690853651</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4295.5676706986615</v>
+        <v>4295.504735546727</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4488.82996491219</v>
+        <v>4489.059275817172</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4413.96888030658</v>
+        <v>4415.518043000927</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4043.888784135194</v>
+        <v>4045.665509288682</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4518.066121809575</v>
+        <v>4520.353758997213</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4600.330365367743</v>
+        <v>4616.668485433935</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>304.96197625238636</v>
+        <v>305.56666959656843</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>360.62494367698815</v>
+        <v>359.7704029330819</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>345.25324868978754</v>
+        <v>344.9915129455773</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>359.75427444253285</v>
+        <v>359.21381268363524</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>364.5937978475621</v>
+        <v>364.91824489702185</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>368.90620148510396</v>
+        <v>367.7973830806761</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>353.3278536410262</v>
+        <v>352.0767100332038</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>344.5160312592554</v>
+        <v>344.67644816508965</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>340.6284489074546</v>
+        <v>341.3342597800533</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>338.78048136747265</v>
+        <v>339.212087706652</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>352.5929907408412</v>
+        <v>353.17396228094543</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>379.2069545402497</v>
+        <v>380.05938303863377</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>388.9245875042746</v>
+        <v>389.67822347810505</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>356.4050713747777</v>
+        <v>355.978818042756</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>358.0389006252569</v>
+        <v>357.9732427127466</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>362.2177902681003</v>
+        <v>361.940432237029</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.5751697436941</v>
+        <v>347.1166581241364</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>380.27012260165145</v>
+        <v>379.2768624487609</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>471.62474221559967</v>
+        <v>469.96061221546984</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>475.9720434765382</v>
+        <v>476.0124582119264</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>468.2132338346853</v>
+        <v>468.82183000699683</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>532.2721195958993</v>
+        <v>532.5233060505007</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>526.9397696268608</v>
+        <v>527.5143238862819</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>502.42004371609045</v>
+        <v>503.5993845444924</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>508.81750234749404</v>
+        <v>509.9856404550016</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>587.483931954804</v>
+        <v>587.3647511335447</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>571.5132645390316</v>
+        <v>571.2330732690854</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>618.4059597494202</v>
+        <v>617.8727181970797</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>599.7686184256498</v>
+        <v>600.189594922594</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>560.6124375474291</v>
+        <v>558.7220542490195</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>527.5081730019089</v>
+        <v>525.9055687829486</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>496.37649508709643</v>
+        <v>496.4276875269986</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>510.0113263280035</v>
+        <v>510.33264995821975</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>503.88150590464693</v>
+        <v>504.1240760057878</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>524.2985691886723</v>
+        <v>524.9243312224835</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>508.6451600782208</v>
+        <v>509.8356988608804</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>523.7066659381189</v>
+        <v>525.0795858433532</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>564.9809892324639</v>
+        <v>565.9401582422565</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>573.5952148615535</v>
+        <v>573.5417525571061</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>580.7383144908495</v>
+        <v>580.9375434217117</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>586.6765591658425</v>
+        <v>587.0795280673545</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>623.9307833727806</v>
+        <v>621.3310019283886</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>613.9461491704524</v>
+        <v>612.1210641744831</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>582.0773798746543</v>
+        <v>581.5066579678397</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>600.4839322321387</v>
+        <v>599.8976088596576</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>618.0863066425349</v>
+        <v>617.9749626726614</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>631.7342063352631</v>
+        <v>632.2749158579273</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>687.6199608768644</v>
+        <v>688.8022193195767</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>699.9888143626988</v>
+        <v>701.8075249578197</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>628.0234652026827</v>
+        <v>630.519612421539</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>624.1914615927624</v>
+        <v>624.5071410142688</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>625.4781793752401</v>
+        <v>626.6869337871062</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>666.9481648925768</v>
+        <v>667.7015935623864</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>687.5124921311833</v>
+        <v>684.4478362903237</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>677.2429720900271</v>
+        <v>675.3246841223576</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>730.8458854095363</v>
+        <v>728.933733150326</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>837.4115805909405</v>
+        <v>835.1818587475224</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>822.0320244930643</v>
+        <v>821.27988222155</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>798.7606803275204</v>
+        <v>799.3459333242112</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>785.5638385648207</v>
+        <v>787.0668117931835</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>826.1217482621229</v>
+        <v>829.0224003031118</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>910.7583439662868</v>
+        <v>916.3813517918755</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1130.3545135301108</v>
+        <v>1131.2480837790733</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1139.3520908036867</v>
+        <v>1142.691104232358</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1366.9968271473806</v>
+        <v>1369.3299508508196</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1339.9809728340185</v>
+        <v>1333.315880270376</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1208.8837043550345</v>
+        <v>1204.5155822229513</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1287.2181184723313</v>
+        <v>1281.2487231578584</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1257.8842352595273</v>
+        <v>1253.0552259532258</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1301.415442925896</v>
+        <v>1299.4039488645667</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1414.1661076814862</v>
+        <v>1414.133269891309</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1557.039027687539</v>
+        <v>1558.8622489344843</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1469.7114703724549</v>
+        <v>1474.7192858865228</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1437.7649358676981</v>
+        <v>1449.0454339633695</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1594.968281938969</v>
+        <v>1598.3278272505395</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1555.808463925601</v>
+        <v>1563.296925901243</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1598.8599292682181</v>
+        <v>1605.9963967089086</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1674.0488456356657</v>
+        <v>1666.6485128416618</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1905.2993153057644</v>
+        <v>1896.32189037871</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2259.745901738879</v>
+        <v>2244.48693024983</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2580.5558952069428</v>
+        <v>2567.0589272457223</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2626.174952656881</v>
+        <v>2619.5472886114208</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2504.235301625284</v>
+        <v>2502.452544908165</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2440.841411378575</v>
+        <v>2442.9532363944923</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2650.8357247626464</v>
+        <v>2659.0036465625085</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2636.7096501600818</v>
+        <v>2659.879373006476</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2830.5664379494883</v>
+        <v>2840.0891624497044</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2848.131898260494</v>
+        <v>2864.8186002746033</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2857.4282614539056</v>
+        <v>2875.732449333759</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3045.2936282572773</v>
+        <v>3029.0845942570845</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3401.208135555296</v>
+        <v>3379.0790566419264</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3533.8505524746693</v>
+        <v>3505.249961446755</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3334.3609618444148</v>
+        <v>3317.0923137268906</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3491.6423119780093</v>
+        <v>3484.1227518267638</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3940.558690853651</v>
+        <v>3937.431605501326</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4295.504735546727</v>
+        <v>4298.685816916574</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4489.059275817172</v>
+        <v>4503.2362460269005</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4415.518043000927</v>
+        <v>4459.037259468944</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4045.665509288682</v>
+        <v>4207.833664990974</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4520.353758997213</v>
+        <v>4715.191056112673</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,15 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4616.668485433935</v>
+        <v>4843.828111738539</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45778.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5297.300491108264</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>305.56666959656843</v>
+        <v>305.1091691233003</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>359.7704029330819</v>
+        <v>360.8291485652967</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>344.9915129455773</v>
+        <v>345.5867901916897</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>359.21381268363524</v>
+        <v>360.1846277082825</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>364.91824489702185</v>
+        <v>365.16838024459327</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>367.7973830806761</v>
+        <v>368.3733574547854</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>352.0767100332038</v>
+        <v>352.79086809646066</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>344.67644816508965</v>
+        <v>344.14044247709467</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>341.3342597800533</v>
+        <v>340.369574360286</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>339.212087706652</v>
+        <v>338.60204685204957</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>353.17396228094543</v>
+        <v>352.50769187483473</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>380.05938303863377</v>
+        <v>379.22810393430063</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>389.67822347810505</v>
+        <v>389.113057482761</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>355.978818042756</v>
+        <v>356.62686534230926</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>357.9732427127466</v>
+        <v>358.4036308314415</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>361.940432237029</v>
+        <v>362.67869387841387</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>347.1166581241364</v>
+        <v>347.1507871437334</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>379.2768624487609</v>
+        <v>379.6944608406677</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>469.96061221546984</v>
+        <v>470.872150484607</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>476.0124582119264</v>
+        <v>475.4174189875893</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>468.82183000699683</v>
+        <v>467.82348667528913</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>532.5233060505007</v>
+        <v>531.966815001438</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>527.5143238862819</v>
+        <v>526.804710015444</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>503.5993845444924</v>
+        <v>502.4626928951414</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>509.9856404550016</v>
+        <v>509.0812763873784</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>587.3647511335447</v>
+        <v>587.9045929346305</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>571.2330732690854</v>
+        <v>572.139685869131</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>617.8727181970797</v>
+        <v>619.264506684214</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>600.189594922594</v>
+        <v>600.8375357736687</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>558.7220542490195</v>
+        <v>559.6633809522582</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>525.9055687829486</v>
+        <v>526.5942966662624</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>496.4276875269986</v>
+        <v>495.73795865644445</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>510.33264995821975</v>
+        <v>509.5308695691018</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>504.1240760057878</v>
+        <v>503.5682031976544</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>524.9243312224835</v>
+        <v>524.1611007418173</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>509.8356988608804</v>
+        <v>508.7046850936113</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>525.0795858433532</v>
+        <v>524.0098475905846</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>565.9401582422565</v>
+        <v>565.4801829622583</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>573.5417525571061</v>
+        <v>574.3193978550584</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>580.9375434217117</v>
+        <v>581.6853541594271</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>587.0795280673545</v>
+        <v>587.8644029287499</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>621.3310019283886</v>
+        <v>622.7135493712235</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>612.1210641744831</v>
+        <v>612.7429063155448</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>581.5066579678397</v>
+        <v>581.1967398510848</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>599.8976088596576</v>
+        <v>599.8011807785253</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>617.9749626726614</v>
+        <v>617.6379725879169</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>632.2749158579273</v>
+        <v>631.5455263797013</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>688.8022193195767</v>
+        <v>687.7093868726105</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>701.8075249578197</v>
+        <v>700.4476971229079</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>630.519612421539</v>
+        <v>628.7201547253125</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>624.5071410142688</v>
+        <v>625.1303489042454</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>626.6869337871062</v>
+        <v>626.7151525522996</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>667.7015935623864</v>
+        <v>668.5461640986892</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>684.4478362903237</v>
+        <v>685.9449707235199</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>675.3246841223576</v>
+        <v>675.6984816026794</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>728.933733150326</v>
+        <v>729.5058604288782</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>835.1818587475224</v>
+        <v>836.2507394896464</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>821.27988222155</v>
+        <v>821.321586467572</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>799.3459333242112</v>
+        <v>798.4888450296463</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>787.0668117931835</v>
+        <v>785.7007976947016</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>829.0224003031118</v>
+        <v>826.7757610531714</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>916.3813517918755</v>
+        <v>912.020356971074</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1131.2480837790733</v>
+        <v>1132.4116689760838</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1142.691104232358</v>
+        <v>1142.0924079376903</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1369.3299508508196</v>
+        <v>1370.9615671068284</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1333.315880270376</v>
+        <v>1336.335237274704</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1204.5155822229513</v>
+        <v>1205.5675601044202</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1281.2487231578584</v>
+        <v>1284.314821396466</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1253.0552259532258</v>
+        <v>1255.7655042851136</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1299.4039488645667</v>
+        <v>1300.0570165731372</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1414.133269891309</v>
+        <v>1413.5702490478157</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1558.8622489344843</v>
+        <v>1557.3457820257943</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1474.7192858865228</v>
+        <v>1471.0798225949823</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1449.0454339633695</v>
+        <v>1440.2094135793345</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1598.3278272505395</v>
+        <v>1598.5882257205997</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1563.296925901243</v>
+        <v>1560.4585567477075</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1605.9963967089086</v>
+        <v>1604.6705142233673</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1666.6485128416618</v>
+        <v>1668.6053171102944</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1896.32189037871</v>
+        <v>1898.9194591568134</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2244.48693024983</v>
+        <v>2253.455835871607</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2567.0589272457223</v>
+        <v>2575.239464886148</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2619.5472886114208</v>
+        <v>2622.820165733378</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2502.452544908165</v>
+        <v>2502.9282630244575</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2442.9532363944923</v>
+        <v>2441.4250543689345</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2659.0036465625085</v>
+        <v>2653.7628024859846</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2659.879373006476</v>
+        <v>2642.147041531152</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2840.0891624497044</v>
+        <v>2838.5886138141964</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2864.8186002746033</v>
+        <v>2858.637867040231</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2875.732449333759</v>
+        <v>2870.356726084753</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3029.0845942570845</v>
+        <v>3033.1426781878695</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3379.0790566419264</v>
+        <v>3387.1325207920927</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3505.249961446755</v>
+        <v>3521.807713506193</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3317.0923137268906</v>
+        <v>3326.0938259379545</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3484.1227518267638</v>
+        <v>3486.320811659609</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3937.431605501326</v>
+        <v>3938.12271433301</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4298.685816916574</v>
+        <v>4296.829698657605</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4503.2362460269005</v>
+        <v>4495.106700941007</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4459.037259468944</v>
+        <v>4426.646413593797</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4207.833664990974</v>
+        <v>4059.9772309357218</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4715.191056112673</v>
+        <v>4541.039028201657</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4843.828111738539</v>
+        <v>4642.11681893487</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5297.300491108264</v>
+        <v>4993.501223953342</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>305.1091691233003</v>
+        <v>304.0953186783942</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>360.8291485652967</v>
+        <v>364.4221712639099</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>345.5867901916897</v>
+        <v>347.03385596864626</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>360.1846277082825</v>
+        <v>361.5331348721667</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>365.16838024459327</v>
+        <v>365.36614237641146</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>368.3733574547854</v>
+        <v>369.68753112306473</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>352.79086809646066</v>
+        <v>355.18746289670065</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>344.14044247709467</v>
+        <v>342.884616434858</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>340.369574360286</v>
+        <v>337.9925965436641</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>338.60204685204957</v>
+        <v>337.2558602641793</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>352.50769187483473</v>
+        <v>350.9792965710052</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>379.22810393430063</v>
+        <v>377.17969043653216</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>389.113057482761</v>
+        <v>387.90574709616754</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>356.62686534230926</v>
+        <v>359.16659493040754</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>358.4036308314415</v>
+        <v>359.41114303523494</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>362.67869387841387</v>
+        <v>363.3686415982176</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>347.1507871437334</v>
+        <v>346.85472219741075</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>379.6944608406677</v>
+        <v>380.5981987849417</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>470.872150484607</v>
+        <v>473.90785106883254</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>475.4174189875893</v>
+        <v>474.11316142955286</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>467.82348667528913</v>
+        <v>465.46074270267405</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>531.966815001438</v>
+        <v>530.893979411912</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>526.804710015444</v>
+        <v>525.3022840500076</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>502.4626928951414</v>
+        <v>499.817159709352</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>509.0812763873784</v>
+        <v>507.26845015258056</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>587.9045929346305</v>
+        <v>590.6219893380239</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>572.139685869131</v>
+        <v>574.060431528323</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>619.264506684214</v>
+        <v>620.3586340860066</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>600.8375357736687</v>
+        <v>601.5877368610062</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>559.6633809522582</v>
+        <v>561.5846040769563</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>526.5942966662624</v>
+        <v>529.0682712272663</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>495.73795865644445</v>
+        <v>494.3893078259222</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>509.5308695691018</v>
+        <v>507.88460194932486</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>503.5682031976544</v>
+        <v>502.6683359123238</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>524.1611007418173</v>
+        <v>522.7443390577209</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>508.7046850936113</v>
+        <v>506.3264821776177</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>524.0098475905846</v>
+        <v>522.0649797961158</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>565.4801829622583</v>
+        <v>565.5786150159489</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>574.3193978550584</v>
+        <v>575.6425537214154</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>581.6853541594271</v>
+        <v>580.8896073205536</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>587.8644029287499</v>
+        <v>588.7833764866699</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>622.7135493712235</v>
+        <v>625.3166376352647</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>612.7429063155448</v>
+        <v>614.934973985628</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>581.1967398510848</v>
+        <v>581.0256920784202</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>599.8011807785253</v>
+        <v>600.21785675931</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>617.6379725879169</v>
+        <v>617.6103344337993</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>631.5455263797013</v>
+        <v>630.6163296414248</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>687.7093868726105</v>
+        <v>685.9830741541316</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>700.4476971229079</v>
+        <v>698.4705480818601</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>628.7201547253125</v>
+        <v>625.6705601577034</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>625.1303489042454</v>
+        <v>625.6248855797054</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>626.7151525522996</v>
+        <v>623.3521368253543</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>668.5461640986892</v>
+        <v>669.1667686707218</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>685.9449707235199</v>
+        <v>688.2350878220524</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>675.6984816026794</v>
+        <v>677.0380059943674</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>729.5058604288782</v>
+        <v>731.8725163795957</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>836.2507394896464</v>
+        <v>840.1923099588523</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>821.321586467572</v>
+        <v>822.8397836253872</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>798.4888450296463</v>
+        <v>798.0001709467738</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>785.7007976947016</v>
+        <v>784.184605452755</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>826.7757610531714</v>
+        <v>823.7376809714382</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>912.020356971074</v>
+        <v>903.5955559205912</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1132.4116689760838</v>
+        <v>1132.407417844686</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1142.0924079376903</v>
+        <v>1132.999868950173</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1370.9615671068284</v>
+        <v>1371.0925135113396</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1336.335237274704</v>
+        <v>1339.6339357890213</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1205.5675601044202</v>
+        <v>1208.1007900528778</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1284.314821396466</v>
+        <v>1293.794597019862</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1255.7655042851136</v>
+        <v>1265.0098386181696</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1300.0570165731372</v>
+        <v>1304.5279219284685</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1413.5702490478157</v>
+        <v>1416.0162195072246</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1557.3457820257943</v>
+        <v>1558.780584090812</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1471.0798225949823</v>
+        <v>1468.267315754589</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1440.2094135793345</v>
+        <v>1423.207070312074</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1598.5882257205997</v>
+        <v>1593.792431695392</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1560.4585567477075</v>
+        <v>1541.3051275041266</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1604.6705142233673</v>
+        <v>1596.1204616751368</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1668.6053171102944</v>
+        <v>1666.3412575046943</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1898.9194591568134</v>
+        <v>1903.684713053889</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2253.455835871607</v>
+        <v>2278.8655538909475</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2575.239464886148</v>
+        <v>2601.2924219699757</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2622.820165733378</v>
+        <v>2637.665255749245</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2502.9282630244575</v>
+        <v>2512.8589482795724</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2441.4250543689345</v>
+        <v>2448.7514553299025</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2653.7628024859846</v>
+        <v>2655.7795469947755</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2642.147041531152</v>
+        <v>2610.5399483396113</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2838.5886138141964</v>
+        <v>2822.4280982876007</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2858.637867040231</v>
+        <v>2817.418255772759</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2870.356726084753</v>
+        <v>2845.8470314160945</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3033.1426781878695</v>
+        <v>3025.385508614211</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3387.1325207920927</v>
+        <v>3400.384713542488</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3521.807713506193</v>
+        <v>3566.744436602977</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3326.0938259379545</v>
+        <v>3356.54408133824</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3486.320811659609</v>
+        <v>3502.6489742773597</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3938.12271433301</v>
+        <v>3957.2294669197818</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4296.829698657605</v>
+        <v>4317.67043815331</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4495.106700941007</v>
+        <v>4508.586668723945</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4426.646413593797</v>
+        <v>4375.339391300221</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>4059.9772309357218</v>
+        <v>3890.8630613324613</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4541.039028201657</v>
+        <v>4478.28155495043</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4642.11681893487</v>
+        <v>4422.734499001584</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,15 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>4993.501223953342</v>
+        <v>4585.279903597091</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45809.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4623.453960653684</v>
       </c>
     </row>
   </sheetData>

--- a/tazemeyvesebzema.xlsx
+++ b/tazemeyvesebzema.xlsx
@@ -80,7 +80,7 @@
         <v>42705.0</v>
       </c>
       <c r="B2" t="n">
-        <v>304.0953186783942</v>
+        <v>304.0892523166322</v>
       </c>
     </row>
     <row r="3">
@@ -88,7 +88,7 @@
         <v>42736.0</v>
       </c>
       <c r="B3" t="n">
-        <v>364.4221712639099</v>
+        <v>364.44267047348075</v>
       </c>
     </row>
     <row r="4">
@@ -96,7 +96,7 @@
         <v>42767.0</v>
       </c>
       <c r="B4" t="n">
-        <v>347.03385596864626</v>
+        <v>347.036153677706</v>
       </c>
     </row>
     <row r="5">
@@ -104,7 +104,7 @@
         <v>42795.0</v>
       </c>
       <c r="B5" t="n">
-        <v>361.5331348721667</v>
+        <v>361.5377948272668</v>
       </c>
     </row>
     <row r="6">
@@ -112,7 +112,7 @@
         <v>42826.0</v>
       </c>
       <c r="B6" t="n">
-        <v>365.36614237641146</v>
+        <v>365.3572427863375</v>
       </c>
     </row>
     <row r="7">
@@ -120,7 +120,7 @@
         <v>42856.0</v>
       </c>
       <c r="B7" t="n">
-        <v>369.68753112306473</v>
+        <v>369.6776817278686</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>42887.0</v>
       </c>
       <c r="B8" t="n">
-        <v>355.18746289670065</v>
+        <v>355.2107742263332</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>42917.0</v>
       </c>
       <c r="B9" t="n">
-        <v>342.884616434858</v>
+        <v>342.88604559205186</v>
       </c>
     </row>
     <row r="10">
@@ -144,7 +144,7 @@
         <v>42948.0</v>
       </c>
       <c r="B10" t="n">
-        <v>337.9925965436641</v>
+        <v>337.9864613579301</v>
       </c>
     </row>
     <row r="11">
@@ -152,7 +152,7 @@
         <v>42979.0</v>
       </c>
       <c r="B11" t="n">
-        <v>337.2558602641793</v>
+        <v>337.25451434138614</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>43009.0</v>
       </c>
       <c r="B12" t="n">
-        <v>350.9792965710052</v>
+        <v>350.97565319079837</v>
       </c>
     </row>
     <row r="13">
@@ -168,7 +168,7 @@
         <v>43040.0</v>
       </c>
       <c r="B13" t="n">
-        <v>377.17969043653216</v>
+        <v>377.17164805345357</v>
       </c>
     </row>
     <row r="14">
@@ -176,7 +176,7 @@
         <v>43070.0</v>
       </c>
       <c r="B14" t="n">
-        <v>387.90574709616754</v>
+        <v>387.898720426469</v>
       </c>
     </row>
     <row r="15">
@@ -184,7 +184,7 @@
         <v>43101.0</v>
       </c>
       <c r="B15" t="n">
-        <v>359.16659493040754</v>
+        <v>359.18145824224865</v>
       </c>
     </row>
     <row r="16">
@@ -192,7 +192,7 @@
         <v>43132.0</v>
       </c>
       <c r="B16" t="n">
-        <v>359.41114303523494</v>
+        <v>359.41089761053155</v>
       </c>
     </row>
     <row r="17">
@@ -200,7 +200,7 @@
         <v>43160.0</v>
       </c>
       <c r="B17" t="n">
-        <v>363.3686415982176</v>
+        <v>363.3698841336327</v>
       </c>
     </row>
     <row r="18">
@@ -208,7 +208,7 @@
         <v>43191.0</v>
       </c>
       <c r="B18" t="n">
-        <v>346.85472219741075</v>
+        <v>346.8438374114563</v>
       </c>
     </row>
     <row r="19">
@@ -216,7 +216,7 @@
         <v>43221.0</v>
       </c>
       <c r="B19" t="n">
-        <v>380.5981987849417</v>
+        <v>380.58542125015623</v>
       </c>
     </row>
     <row r="20">
@@ -224,7 +224,7 @@
         <v>43252.0</v>
       </c>
       <c r="B20" t="n">
-        <v>473.90785106883254</v>
+        <v>473.9379536156339</v>
       </c>
     </row>
     <row r="21">
@@ -232,7 +232,7 @@
         <v>43282.0</v>
       </c>
       <c r="B21" t="n">
-        <v>474.11316142955286</v>
+        <v>474.1177948609516</v>
       </c>
     </row>
     <row r="22">
@@ -240,7 +240,7 @@
         <v>43313.0</v>
       </c>
       <c r="B22" t="n">
-        <v>465.46074270267405</v>
+        <v>465.4574937428502</v>
       </c>
     </row>
     <row r="23">
@@ -248,7 +248,7 @@
         <v>43344.0</v>
       </c>
       <c r="B23" t="n">
-        <v>530.893979411912</v>
+        <v>530.8974232156838</v>
       </c>
     </row>
     <row r="24">
@@ -256,7 +256,7 @@
         <v>43374.0</v>
       </c>
       <c r="B24" t="n">
-        <v>525.3022840500076</v>
+        <v>525.3010153525142</v>
       </c>
     </row>
     <row r="25">
@@ -264,7 +264,7 @@
         <v>43405.0</v>
       </c>
       <c r="B25" t="n">
-        <v>499.817159709352</v>
+        <v>499.8072138845149</v>
       </c>
     </row>
     <row r="26">
@@ -272,7 +272,7 @@
         <v>43435.0</v>
       </c>
       <c r="B26" t="n">
-        <v>507.26845015258056</v>
+        <v>507.2588239814464</v>
       </c>
     </row>
     <row r="27">
@@ -280,7 +280,7 @@
         <v>43466.0</v>
       </c>
       <c r="B27" t="n">
-        <v>590.6219893380239</v>
+        <v>590.6378273854438</v>
       </c>
     </row>
     <row r="28">
@@ -288,7 +288,7 @@
         <v>43497.0</v>
       </c>
       <c r="B28" t="n">
-        <v>574.060431528323</v>
+        <v>574.060793039308</v>
       </c>
     </row>
     <row r="29">
@@ -296,7 +296,7 @@
         <v>43525.0</v>
       </c>
       <c r="B29" t="n">
-        <v>620.3586340860066</v>
+        <v>620.3598017789413</v>
       </c>
     </row>
     <row r="30">
@@ -304,7 +304,7 @@
         <v>43556.0</v>
       </c>
       <c r="B30" t="n">
-        <v>601.5877368610062</v>
+        <v>601.5745686654199</v>
       </c>
     </row>
     <row r="31">
@@ -312,7 +312,7 @@
         <v>43586.0</v>
       </c>
       <c r="B31" t="n">
-        <v>561.5846040769563</v>
+        <v>561.5672217379179</v>
       </c>
     </row>
     <row r="32">
@@ -320,7 +320,7 @@
         <v>43617.0</v>
       </c>
       <c r="B32" t="n">
-        <v>529.0682712272663</v>
+        <v>529.0969923223103</v>
       </c>
     </row>
     <row r="33">
@@ -328,7 +328,7 @@
         <v>43647.0</v>
       </c>
       <c r="B33" t="n">
-        <v>494.3893078259222</v>
+        <v>494.3952201865784</v>
       </c>
     </row>
     <row r="34">
@@ -336,7 +336,7 @@
         <v>43678.0</v>
       </c>
       <c r="B34" t="n">
-        <v>507.88460194932486</v>
+        <v>507.886952536791</v>
       </c>
     </row>
     <row r="35">
@@ -344,7 +344,7 @@
         <v>43709.0</v>
       </c>
       <c r="B35" t="n">
-        <v>502.6683359123238</v>
+        <v>502.67292157403585</v>
       </c>
     </row>
     <row r="36">
@@ -352,7 +352,7 @@
         <v>43739.0</v>
       </c>
       <c r="B36" t="n">
-        <v>522.7443390577209</v>
+        <v>522.7441753917949</v>
       </c>
     </row>
     <row r="37">
@@ -360,7 +360,7 @@
         <v>43770.0</v>
       </c>
       <c r="B37" t="n">
-        <v>506.3264821776177</v>
+        <v>506.3186295178992</v>
       </c>
     </row>
     <row r="38">
@@ -368,7 +368,7 @@
         <v>43800.0</v>
       </c>
       <c r="B38" t="n">
-        <v>522.0649797961158</v>
+        <v>522.0556069316078</v>
       </c>
     </row>
     <row r="39">
@@ -376,7 +376,7 @@
         <v>43831.0</v>
       </c>
       <c r="B39" t="n">
-        <v>565.5786150159489</v>
+        <v>565.5796992440745</v>
       </c>
     </row>
     <row r="40">
@@ -384,7 +384,7 @@
         <v>43862.0</v>
       </c>
       <c r="B40" t="n">
-        <v>575.6425537214154</v>
+        <v>575.6385971228948</v>
       </c>
     </row>
     <row r="41">
@@ -392,7 +392,7 @@
         <v>43891.0</v>
       </c>
       <c r="B41" t="n">
-        <v>580.8896073205536</v>
+        <v>580.8809446720746</v>
       </c>
     </row>
     <row r="42">
@@ -400,7 +400,7 @@
         <v>43922.0</v>
       </c>
       <c r="B42" t="n">
-        <v>588.7833764866699</v>
+        <v>588.7705370095815</v>
       </c>
     </row>
     <row r="43">
@@ -408,7 +408,7 @@
         <v>43952.0</v>
       </c>
       <c r="B43" t="n">
-        <v>625.3166376352647</v>
+        <v>625.2970112775162</v>
       </c>
     </row>
     <row r="44">
@@ -416,7 +416,7 @@
         <v>43983.0</v>
       </c>
       <c r="B44" t="n">
-        <v>614.934973985628</v>
+        <v>614.9642985765696</v>
       </c>
     </row>
     <row r="45">
@@ -424,7 +424,7 @@
         <v>44013.0</v>
       </c>
       <c r="B45" t="n">
-        <v>581.0256920784202</v>
+        <v>581.0413095318783</v>
       </c>
     </row>
     <row r="46">
@@ -432,7 +432,7 @@
         <v>44044.0</v>
       </c>
       <c r="B46" t="n">
-        <v>600.21785675931</v>
+        <v>600.2344089553931</v>
       </c>
     </row>
     <row r="47">
@@ -440,7 +440,7 @@
         <v>44075.0</v>
       </c>
       <c r="B47" t="n">
-        <v>617.6103344337993</v>
+        <v>617.6225600748819</v>
       </c>
     </row>
     <row r="48">
@@ -448,7 +448,7 @@
         <v>44105.0</v>
       </c>
       <c r="B48" t="n">
-        <v>630.6163296414248</v>
+        <v>630.621243878008</v>
       </c>
     </row>
     <row r="49">
@@ -456,7 +456,7 @@
         <v>44136.0</v>
       </c>
       <c r="B49" t="n">
-        <v>685.9830741541316</v>
+        <v>685.9813667252449</v>
       </c>
     </row>
     <row r="50">
@@ -464,7 +464,7 @@
         <v>44166.0</v>
       </c>
       <c r="B50" t="n">
-        <v>698.4705480818601</v>
+        <v>698.4626463290238</v>
       </c>
     </row>
     <row r="51">
@@ -472,7 +472,7 @@
         <v>44197.0</v>
       </c>
       <c r="B51" t="n">
-        <v>625.6705601577034</v>
+        <v>625.6543115835935</v>
       </c>
     </row>
     <row r="52">
@@ -480,7 +480,7 @@
         <v>44228.0</v>
       </c>
       <c r="B52" t="n">
-        <v>625.6248855797054</v>
+        <v>625.6140253160254</v>
       </c>
     </row>
     <row r="53">
@@ -488,7 +488,7 @@
         <v>44256.0</v>
       </c>
       <c r="B53" t="n">
-        <v>623.3521368253543</v>
+        <v>623.3296237040473</v>
       </c>
     </row>
     <row r="54">
@@ -496,7 +496,7 @@
         <v>44287.0</v>
       </c>
       <c r="B54" t="n">
-        <v>669.1667686707218</v>
+        <v>669.1484049438444</v>
       </c>
     </row>
     <row r="55">
@@ -504,7 +504,7 @@
         <v>44317.0</v>
       </c>
       <c r="B55" t="n">
-        <v>688.2350878220524</v>
+        <v>688.2066265005357</v>
       </c>
     </row>
     <row r="56">
@@ -512,7 +512,7 @@
         <v>44348.0</v>
       </c>
       <c r="B56" t="n">
-        <v>677.0380059943674</v>
+        <v>677.0642964619009</v>
       </c>
     </row>
     <row r="57">
@@ -520,7 +520,7 @@
         <v>44378.0</v>
       </c>
       <c r="B57" t="n">
-        <v>731.8725163795957</v>
+        <v>731.9074755481265</v>
       </c>
     </row>
     <row r="58">
@@ -528,7 +528,7 @@
         <v>44409.0</v>
       </c>
       <c r="B58" t="n">
-        <v>840.1923099588523</v>
+        <v>840.2352265926503</v>
       </c>
     </row>
     <row r="59">
@@ -536,7 +536,7 @@
         <v>44440.0</v>
       </c>
       <c r="B59" t="n">
-        <v>822.8397836253872</v>
+        <v>822.8656575931811</v>
       </c>
     </row>
     <row r="60">
@@ -544,7 +544,7 @@
         <v>44470.0</v>
       </c>
       <c r="B60" t="n">
-        <v>798.0001709467738</v>
+        <v>798.0117169134426</v>
       </c>
     </row>
     <row r="61">
@@ -552,7 +552,7 @@
         <v>44501.0</v>
       </c>
       <c r="B61" t="n">
-        <v>784.184605452755</v>
+        <v>784.1872856009556</v>
       </c>
     </row>
     <row r="62">
@@ -560,7 +560,7 @@
         <v>44531.0</v>
       </c>
       <c r="B62" t="n">
-        <v>823.7376809714382</v>
+        <v>823.7273177878391</v>
       </c>
     </row>
     <row r="63">
@@ -568,7 +568,7 @@
         <v>44562.0</v>
       </c>
       <c r="B63" t="n">
-        <v>903.5955559205912</v>
+        <v>903.5502086032324</v>
       </c>
     </row>
     <row r="64">
@@ -576,7 +576,7 @@
         <v>44593.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1132.407417844686</v>
+        <v>1132.378979605576</v>
       </c>
     </row>
     <row r="65">
@@ -584,7 +584,7 @@
         <v>44621.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1132.999868950173</v>
+        <v>1132.943443491342</v>
       </c>
     </row>
     <row r="66">
@@ -592,7 +592,7 @@
         <v>44652.0</v>
       </c>
       <c r="B66" t="n">
-        <v>1371.0925135113396</v>
+        <v>1371.0445836307629</v>
       </c>
     </row>
     <row r="67">
@@ -600,7 +600,7 @@
         <v>44682.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1339.6339357890213</v>
+        <v>1339.5625395731158</v>
       </c>
     </row>
     <row r="68">
@@ -608,7 +608,7 @@
         <v>44713.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1208.1007900528778</v>
+        <v>1208.1473135798756</v>
       </c>
     </row>
     <row r="69">
@@ -616,7 +616,7 @@
         <v>44743.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1293.794597019862</v>
+        <v>1293.8871914123508</v>
       </c>
     </row>
     <row r="70">
@@ -624,7 +624,7 @@
         <v>44774.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1265.0098386181696</v>
+        <v>1265.0954808492522</v>
       </c>
     </row>
     <row r="71">
@@ -632,7 +632,7 @@
         <v>44805.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1304.5279219284685</v>
+        <v>1304.5825061279158</v>
       </c>
     </row>
     <row r="72">
@@ -640,7 +640,7 @@
         <v>44835.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1416.0162195072246</v>
+        <v>1416.0569937089106</v>
       </c>
     </row>
     <row r="73">
@@ -648,7 +648,7 @@
         <v>44866.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1558.780584090812</v>
+        <v>1558.8130033368002</v>
       </c>
     </row>
     <row r="74">
@@ -656,7 +656,7 @@
         <v>44896.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1468.267315754589</v>
+        <v>1468.2666322170217</v>
       </c>
     </row>
     <row r="75">
@@ -664,7 +664,7 @@
         <v>44927.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1423.207070312074</v>
+        <v>1423.1160870366125</v>
       </c>
     </row>
     <row r="76">
@@ -672,7 +672,7 @@
         <v>44958.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1593.792431695392</v>
+        <v>1593.7219193253877</v>
       </c>
     </row>
     <row r="77">
@@ -680,7 +680,7 @@
         <v>44986.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1541.3051275041266</v>
+        <v>1541.1956017542122</v>
       </c>
     </row>
     <row r="78">
@@ -688,7 +688,7 @@
         <v>45017.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1596.1204616751368</v>
+        <v>1596.0154056366732</v>
       </c>
     </row>
     <row r="79">
@@ -696,7 +696,7 @@
         <v>45047.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1666.3412575046943</v>
+        <v>1666.205555690929</v>
       </c>
     </row>
     <row r="80">
@@ -704,7 +704,7 @@
         <v>45078.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1903.684713053889</v>
+        <v>1903.7603454503276</v>
       </c>
     </row>
     <row r="81">
@@ -712,7 +712,7 @@
         <v>45108.0</v>
       </c>
       <c r="B81" t="n">
-        <v>2278.8655538909475</v>
+        <v>2279.078552332631</v>
       </c>
     </row>
     <row r="82">
@@ -720,7 +720,7 @@
         <v>45139.0</v>
       </c>
       <c r="B82" t="n">
-        <v>2601.2924219699757</v>
+        <v>2601.5106908179882</v>
       </c>
     </row>
     <row r="83">
@@ -728,7 +728,7 @@
         <v>45170.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2637.665255749245</v>
+        <v>2637.8100926290203</v>
       </c>
     </row>
     <row r="84">
@@ -736,7 +736,7 @@
         <v>45200.0</v>
       </c>
       <c r="B84" t="n">
-        <v>2512.8589482795724</v>
+        <v>2512.966367047286</v>
       </c>
     </row>
     <row r="85">
@@ -744,7 +744,7 @@
         <v>45231.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2448.7514553299025</v>
+        <v>2448.8365280837743</v>
       </c>
     </row>
     <row r="86">
@@ -752,7 +752,7 @@
         <v>45261.0</v>
       </c>
       <c r="B86" t="n">
-        <v>2655.7795469947755</v>
+        <v>2655.823664804956</v>
       </c>
     </row>
     <row r="87">
@@ -760,7 +760,7 @@
         <v>45292.0</v>
       </c>
       <c r="B87" t="n">
-        <v>2610.5399483396113</v>
+        <v>2610.37306843233</v>
       </c>
     </row>
     <row r="88">
@@ -768,7 +768,7 @@
         <v>45323.0</v>
       </c>
       <c r="B88" t="n">
-        <v>2822.4280982876007</v>
+        <v>2822.252996258683</v>
       </c>
     </row>
     <row r="89">
@@ -776,7 +776,7 @@
         <v>45352.0</v>
       </c>
       <c r="B89" t="n">
-        <v>2817.418255772759</v>
+        <v>2817.1936242074685</v>
       </c>
     </row>
     <row r="90">
@@ -784,7 +784,7 @@
         <v>45383.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2845.8470314160945</v>
+        <v>2845.602631618177</v>
       </c>
     </row>
     <row r="91">
@@ -792,7 +792,7 @@
         <v>45413.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3025.385508614211</v>
+        <v>3025.088770218672</v>
       </c>
     </row>
     <row r="92">
@@ -800,7 +800,7 @@
         <v>45444.0</v>
       </c>
       <c r="B92" t="n">
-        <v>3400.384713542488</v>
+        <v>3400.540518255954</v>
       </c>
     </row>
     <row r="93">
@@ -808,7 +808,7 @@
         <v>45474.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3566.744436602977</v>
+        <v>3567.109597304749</v>
       </c>
     </row>
     <row r="94">
@@ -816,7 +816,7 @@
         <v>45505.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3356.54408133824</v>
+        <v>3356.8163399103437</v>
       </c>
     </row>
     <row r="95">
@@ -824,7 +824,7 @@
         <v>45536.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3502.6489742773597</v>
+        <v>3502.8312563692552</v>
       </c>
     </row>
     <row r="96">
@@ -832,7 +832,7 @@
         <v>45566.0</v>
       </c>
       <c r="B96" t="n">
-        <v>3957.2294669197818</v>
+        <v>3957.425780072146</v>
       </c>
     </row>
     <row r="97">
@@ -840,7 +840,7 @@
         <v>45597.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4317.67043815331</v>
+        <v>4317.873743940902</v>
       </c>
     </row>
     <row r="98">
@@ -848,7 +848,7 @@
         <v>45627.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4508.586668723945</v>
+        <v>4508.72887362668</v>
       </c>
     </row>
     <row r="99">
@@ -856,7 +856,7 @@
         <v>45658.0</v>
       </c>
       <c r="B99" t="n">
-        <v>4375.339391300221</v>
+        <v>4375.077906615523</v>
       </c>
     </row>
     <row r="100">
@@ -864,7 +864,7 @@
         <v>45689.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3890.8630613324613</v>
+        <v>3890.564643017974</v>
       </c>
     </row>
     <row r="101">
@@ -872,7 +872,7 @@
         <v>45717.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4478.28155495043</v>
+        <v>4477.910749439438</v>
       </c>
     </row>
     <row r="102">
@@ -880,7 +880,7 @@
         <v>45748.0</v>
       </c>
       <c r="B102" t="n">
-        <v>4422.734499001584</v>
+        <v>4422.312987148715</v>
       </c>
     </row>
     <row r="103">
@@ -888,7 +888,7 @@
         <v>45778.0</v>
       </c>
       <c r="B103" t="n">
-        <v>4585.279903597091</v>
+        <v>4584.789940541365</v>
       </c>
     </row>
     <row r="104">
@@ -896,7 +896,7 @@
         <v>45809.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4623.453960653684</v>
+        <v>4618.858330373094</v>
       </c>
     </row>
   </sheetData>
